--- a/ThongKe/TienThuong_BieuDoCot_Nam2023_Thang12.xlsx
+++ b/ThongKe/TienThuong_BieuDoCot_Nam2023_Thang12.xlsx
@@ -71,7 +71,7 @@
     <t>NV2219</t>
   </si>
   <si>
-    <t>Phạm Văn Hinh</t>
+    <t xml:space="preserve">Phạm Văn Hinh </t>
   </si>
   <si>
     <t>0519848003</t>
